--- a/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 26,82</t>
+          <t>10,55; 26,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 25,54</t>
+          <t>10,27; 25,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 28,85</t>
+          <t>10,99; 28,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,1</t>
+          <t>0,0; 16,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 21,21</t>
+          <t>5,03; 22,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 20,68</t>
+          <t>9,18; 21,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 18,33</t>
+          <t>7,99; 18,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 22,64</t>
+          <t>10,12; 22,96</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 23,7</t>
+          <t>8,09; 24,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 16,44</t>
+          <t>4,56; 17,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 25,35</t>
+          <t>8,53; 25,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,56</t>
+          <t>0,0; 15,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,34</t>
+          <t>0,0; 20,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 24,81</t>
+          <t>7,73; 25,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 17,72</t>
+          <t>6,96; 17,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,68</t>
+          <t>4,08; 12,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,82</t>
+          <t>10,05; 22,0</t>
         </is>
       </c>
     </row>
@@ -905,27 +906,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,16; 32,87</t>
+          <t>16,76; 32,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 25,81</t>
+          <t>12,23; 25,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 28,54</t>
+          <t>12,08; 28,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,83</t>
+          <t>0,0; 23,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 23,14</t>
+          <t>2,68; 22,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 27,33</t>
+          <t>13,67; 28,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 23,55</t>
+          <t>11,14; 23,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,43; 25,12</t>
+          <t>11,12; 26,17</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,74; 37,97</t>
+          <t>27,13; 37,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 27,18</t>
+          <t>17,57; 26,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 26,79</t>
+          <t>16,17; 27,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 16,06</t>
+          <t>1,61; 16,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,9</t>
+          <t>4,53; 15,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 18,56</t>
+          <t>4,52; 17,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,03; 32,64</t>
+          <t>22,85; 32,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 22,62</t>
+          <t>15,02; 22,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 22,54</t>
+          <t>13,8; 22,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 56,95</t>
+          <t>31,64; 55,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 34,29</t>
+          <t>17,81; 33,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 28,2</t>
+          <t>13,01; 27,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 28,96</t>
+          <t>5,3; 28,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 15,36</t>
+          <t>2,84; 15,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,99</t>
+          <t>0,0; 10,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,33; 41,89</t>
+          <t>24,47; 42,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,28</t>
+          <t>13,84; 25,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 19,09</t>
+          <t>8,55; 18,61</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1241,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,44</t>
+          <t>0,0; 67,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,53; 28,09</t>
+          <t>7,46; 26,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 32,36</t>
+          <t>10,8; 32,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 23,49</t>
+          <t>2,76; 23,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 25,33</t>
+          <t>5,94; 24,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 31,74</t>
+          <t>10,97; 30,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 19,88</t>
+          <t>2,43; 18,47</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,8; 30,55</t>
+          <t>23,75; 30,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,68</t>
+          <t>16,9; 22,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,57</t>
+          <t>16,13; 22,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,34; 13,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,35</t>
+          <t>6,07; 12,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,45</t>
+          <t>6,33; 12,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,19; 24,87</t>
+          <t>18,97; 24,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,08; 18,47</t>
+          <t>13,86; 18,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,15</t>
+          <t>13,38; 18,08</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16613</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19439</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17257</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18643</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20441</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24203</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10117; 25641</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11512; 28707</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10256; 26832</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6259</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4746</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3085; 14029</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12294; 28934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13086; 30867</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15655; 35531</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11686</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8304</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11330</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2951</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9647</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13678</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11255</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6463; 19354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4099; 15461</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6218; 18835</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6322</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10840</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5176; 17122</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8370; 21460</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5878; 18234</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14042; 30748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25538</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29452</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26667</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32436</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17885; 34815</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19817; 41559</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11876; 28369</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5708</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>944; 7806</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1779</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17920; 36830</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21962; 45871</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12401; 29173</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>88213</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70090</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>48206</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10416</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8311</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>91920</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80505</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>56517</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>73817; 103094</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>56042; 86071</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>36836; 62616</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1019; 10195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5126; 17269</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3920; 15336</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76649; 108084</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64887; 98640</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43390; 71165</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27450</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32513</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21027</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4972</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32422</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37729</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23027</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20120; 35531</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22641; 42944</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14016; 29630</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1880; 10012</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1972; 10755</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7290</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>24249; 42189</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27205; 50564</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15208; 33104</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11906</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7221</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12883</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4045</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1703</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3657; 13016</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6584; 20062</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>999; 8325</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3239; 13577</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7344; 20711</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1013; 7702</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>169499</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>160776</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>116902</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34474</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>190550</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>195250</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>146977</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>148095; 191653</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>137926; 184183</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>97643; 138260</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>13395; 33379</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23354; 46612</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>21187; 41886</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>165899; 214939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>166381; 220801</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>125776; 169980</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
